--- a/TA buku/Results/Calculation/dp-partial-glove.xlsx
+++ b/TA buku/Results/Calculation/dp-partial-glove.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="G2">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="H2">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="G3">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="H3">
+        <v>0.75</v>
+      </c>
+      <c r="I3">
         <v>0.78</v>
-      </c>
-      <c r="I3">
-        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C4">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>26</v>
       </c>
       <c r="F4">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G4">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="H4">
         <v>0.74</v>
       </c>
       <c r="I4">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,10 +522,10 @@
         <v>69</v>
       </c>
       <c r="C5">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>61</v>
@@ -540,7 +540,7 @@
         <v>0.55</v>
       </c>
       <c r="I5">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>
